--- a/Data/MaplyData.xlsx
+++ b/Data/MaplyData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\Uni\3rd Year Project\CS310Project\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\University\Year 3\CS310\CS310Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5A0778-EBE9-45F0-953E-23493EEE6DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5559798-7AEA-45C6-AE68-DEA4F61053D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17544" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4410" yWindow="4410" windowWidth="28800" windowHeight="15555" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,33 +65,27 @@
     <t>Auchrobert Wind Farm</t>
   </si>
   <si>
-    <t>An Suidhe 1</t>
-  </si>
-  <si>
-    <t>Bhlaraidh Windfarm 1</t>
+    <t>AChruach Wind Farm</t>
+  </si>
+  <si>
+    <t>AIKENGALL II</t>
+  </si>
+  <si>
+    <t>Arecleoch Wind Farm</t>
+  </si>
+  <si>
+    <t>Blackcraig Windfarm</t>
   </si>
   <si>
     <t>Beinn An Tuirc 2</t>
   </si>
   <si>
-    <t>Clashindarroch Wind Farm</t>
-  </si>
-  <si>
     <t>Cour Wind Farm</t>
   </si>
   <si>
-    <t>Carraig Gheal Wind Farm</t>
-  </si>
-  <si>
     <t>Dersalloch Windfarm</t>
   </si>
   <si>
-    <t>Edinbane Windfarm</t>
-  </si>
-  <si>
-    <t>Farr Windfarm Unit 2</t>
-  </si>
-  <si>
     <t>Freasdail Wind Farm</t>
   </si>
   <si>
@@ -99,6 +93,12 @@
   </si>
   <si>
     <t>Mark Hill Windfarm</t>
+  </si>
+  <si>
+    <t>Sanquhar Community Windfarm</t>
+  </si>
+  <si>
+    <t>Tullo Windfarm Extension</t>
   </si>
   <si>
     <t>Whitelee Win Extension</t>
@@ -524,23 +524,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G57" activeCellId="14" sqref="G5 G8 G7 G9 G11 G12:G14 G16:G21 G23:G24 G25:G26 G28:G32 G34:G41 G43:G44 G47:G52 G54:G55 G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="97.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="97.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -567,7 +567,7 @@
       </c>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
@@ -582,11 +582,11 @@
         <v>-4.0153845917278499</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
@@ -594,16 +594,16 @@
         <v>22</v>
       </c>
       <c r="E3" s="9">
-        <v>56.224051000000003</v>
+        <v>56.1269712</v>
       </c>
       <c r="F3" s="9">
-        <v>-5.2130074000000004</v>
+        <v>-5.3432396000000004</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
@@ -611,16 +611,16 @@
         <v>22</v>
       </c>
       <c r="E4" s="9">
-        <v>57.2396358056656</v>
+        <v>55.915004699999997</v>
       </c>
       <c r="F4" s="9">
-        <v>-4.6954648904421203</v>
+        <v>-2.49688</v>
       </c>
       <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
@@ -628,16 +628,16 @@
         <v>22</v>
       </c>
       <c r="E5" s="9">
-        <v>55.560335298141602</v>
+        <v>55.041681199999999</v>
       </c>
       <c r="F5" s="9">
-        <v>-5.5886981217063996</v>
+        <v>-4.7707430000000004</v>
       </c>
       <c r="G5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
@@ -645,16 +645,16 @@
         <v>22</v>
       </c>
       <c r="E6" s="9">
-        <v>57.367291690384498</v>
+        <v>55.117069597392302</v>
       </c>
       <c r="F6" s="9">
-        <v>-2.9605749569700301</v>
+        <v>-4.0361392778064902</v>
       </c>
       <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -662,16 +662,16 @@
         <v>22</v>
       </c>
       <c r="E7" s="9">
-        <v>55.568100951488702</v>
+        <v>55.560335298141602</v>
       </c>
       <c r="F7" s="9">
-        <v>-5.6257169180013298</v>
+        <v>-5.5886981217063996</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
@@ -679,16 +679,16 @@
         <v>22</v>
       </c>
       <c r="E8" s="9">
-        <v>56.3343952206992</v>
+        <v>55.568100951488702</v>
       </c>
       <c r="F8" s="9">
-        <v>-5.28094768528518</v>
+        <v>-5.6257169180013298</v>
       </c>
       <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
@@ -702,10 +702,10 @@
         <v>-4.4985058947346204</v>
       </c>
       <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
@@ -713,16 +713,16 @@
         <v>22</v>
       </c>
       <c r="E10" s="9">
-        <v>57.4488820955549</v>
+        <v>55.782416994136497</v>
       </c>
       <c r="F10" s="9">
-        <v>-6.4096065884504396</v>
+        <v>-5.48523026537109</v>
       </c>
       <c r="G10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>17</v>
       </c>
@@ -730,16 +730,16 @@
         <v>22</v>
       </c>
       <c r="E11" s="9">
-        <v>57.342372521337502</v>
+        <v>55.043107654994401</v>
       </c>
       <c r="F11" s="9">
-        <v>-4.1592296624701603</v>
+        <v>-4.7678508038686802</v>
       </c>
       <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
@@ -747,16 +747,16 @@
         <v>22</v>
       </c>
       <c r="E12" s="9">
-        <v>55.782416994136497</v>
+        <v>55.132832163067697</v>
       </c>
       <c r="F12" s="9">
-        <v>-5.48523026537109</v>
+        <v>-4.7466172068298196</v>
       </c>
       <c r="G12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>19</v>
       </c>
@@ -764,16 +764,16 @@
         <v>22</v>
       </c>
       <c r="E13" s="9">
-        <v>55.043107654994401</v>
+        <v>55.346149432626198</v>
       </c>
       <c r="F13" s="9">
-        <v>-4.7678508038686802</v>
+        <v>-4.0625041938576096</v>
       </c>
       <c r="G13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>20</v>
       </c>
@@ -781,16 +781,16 @@
         <v>22</v>
       </c>
       <c r="E14" s="9">
-        <v>55.132832163067697</v>
+        <v>56.837981488032803</v>
       </c>
       <c r="F14" s="9">
-        <v>-4.7466172068298196</v>
+        <v>-2.4049841760016299</v>
       </c>
       <c r="G14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>21</v>
       </c>

--- a/Data/MaplyData.xlsx
+++ b/Data/MaplyData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\University\Year 3\CS310\CS310Project\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\Uni\3rd Year Project\CS310Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5559798-7AEA-45C6-AE68-DEA4F61053D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75908FE8-6C57-49DE-BEE8-923AF3C7CEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="4410" windowWidth="28800" windowHeight="15555" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17544" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Name of Location (Optional)</t>
   </si>
@@ -62,15 +62,6 @@
     <t>Remarks (Optional)</t>
   </si>
   <si>
-    <t>Auchrobert Wind Farm</t>
-  </si>
-  <si>
-    <t>AChruach Wind Farm</t>
-  </si>
-  <si>
-    <t>AIKENGALL II</t>
-  </si>
-  <si>
     <t>Arecleoch Wind Farm</t>
   </si>
   <si>
@@ -80,25 +71,22 @@
     <t>Beinn An Tuirc 2</t>
   </si>
   <si>
-    <t>Cour Wind Farm</t>
+    <t>Dalswinton Wind Farm</t>
   </si>
   <si>
     <t>Dersalloch Windfarm</t>
   </si>
   <si>
-    <t>Freasdail Wind Farm</t>
-  </si>
-  <si>
     <t>Kilgallioch Wind Farm</t>
   </si>
   <si>
+    <t>Minsca Wind Farm</t>
+  </si>
+  <si>
     <t>Mark Hill Windfarm</t>
   </si>
   <si>
-    <t>Sanquhar Community Windfarm</t>
-  </si>
-  <si>
-    <t>Tullo Windfarm Extension</t>
+    <t>Whitelee Windfarm</t>
   </si>
   <si>
     <t>Whitelee Win Extension</t>
@@ -130,10 +118,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FFF78C6C"/>
+      <name val="Ubuntu Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -162,12 +150,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -181,8 +166,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,289 +509,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G57" activeCellId="14" sqref="G5 G8 G7 G9 G11 G12:G14 G16:G21 G23:G24 G25:G26 G28:G32 G34:G41 G43:G44 G47:G52 G54:G55 G57"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="97.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="97.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="9">
-        <v>55.610557399402701</v>
-      </c>
-      <c r="F2" s="9">
-        <v>-4.0153845917278499</v>
-      </c>
-      <c r="G2">
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7">
+        <v>55.041681199999999</v>
+      </c>
+      <c r="F2" s="7">
+        <v>-4.7707430000000004</v>
+      </c>
+      <c r="G2" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7">
+        <v>55.117069597392302</v>
+      </c>
+      <c r="F3" s="7">
+        <v>-4.0361392778064902</v>
+      </c>
+      <c r="G3" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7">
+        <v>55.560335298141602</v>
+      </c>
+      <c r="F4" s="7">
+        <v>-5.5886981217063996</v>
+      </c>
+      <c r="G4" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7">
+        <v>55.182271372631099</v>
+      </c>
+      <c r="F5" s="7">
+        <v>-3.6615459851750698</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7">
+        <v>55.304104971900699</v>
+      </c>
+      <c r="F6" s="7">
+        <v>-4.4985058947346204</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7">
+        <v>55.043107654994401</v>
+      </c>
+      <c r="F7" s="7">
+        <v>-4.7678508038686802</v>
+      </c>
+      <c r="G7" s="8">
         <v>8</v>
       </c>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="9">
-        <v>56.1269712</v>
-      </c>
-      <c r="F3" s="9">
-        <v>-5.3432396000000004</v>
-      </c>
-      <c r="G3">
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7">
+        <v>55.1099761894369</v>
+      </c>
+      <c r="F8" s="7">
+        <v>-3.2264262443426199</v>
+      </c>
+      <c r="G8" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="9">
-        <v>55.915004699999997</v>
-      </c>
-      <c r="F4" s="9">
-        <v>-2.49688</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="9">
-        <v>55.041681199999999</v>
-      </c>
-      <c r="F5" s="9">
-        <v>-4.7707430000000004</v>
-      </c>
-      <c r="G5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="9">
-        <v>55.117069597392302</v>
-      </c>
-      <c r="F6" s="9">
-        <v>-4.0361392778064902</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="9">
-        <v>55.560335298141602</v>
-      </c>
-      <c r="F7" s="9">
-        <v>-5.5886981217063996</v>
-      </c>
-      <c r="G7">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7">
+        <v>55.132832163067697</v>
+      </c>
+      <c r="F9" s="7">
+        <v>-4.7466172068298196</v>
+      </c>
+      <c r="G9" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="7">
+        <v>55.7006587286807</v>
+      </c>
+      <c r="F10" s="7">
+        <v>-4.3280772062789099</v>
+      </c>
+      <c r="G10" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="9">
-        <v>55.568100951488702</v>
-      </c>
-      <c r="F8" s="9">
-        <v>-5.6257169180013298</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="9">
-        <v>55.304104971900699</v>
-      </c>
-      <c r="F9" s="9">
-        <v>-4.4985058947346204</v>
-      </c>
-      <c r="G9">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="7">
+        <v>55.666804372985098</v>
+      </c>
+      <c r="F11" s="7">
+        <v>-4.2832658439550499</v>
+      </c>
+      <c r="G11" s="8">
         <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="9">
-        <v>55.782416994136497</v>
-      </c>
-      <c r="F10" s="9">
-        <v>-5.48523026537109</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="9">
-        <v>55.043107654994401</v>
-      </c>
-      <c r="F11" s="9">
-        <v>-4.7678508038686802</v>
-      </c>
-      <c r="G11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="9">
-        <v>55.132832163067697</v>
-      </c>
-      <c r="F12" s="9">
-        <v>-4.7466172068298196</v>
-      </c>
-      <c r="G12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="9">
-        <v>55.346149432626198</v>
-      </c>
-      <c r="F13" s="9">
-        <v>-4.0625041938576096</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="9">
-        <v>56.837981488032803</v>
-      </c>
-      <c r="F14" s="9">
-        <v>-2.4049841760016299</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="9">
-        <v>55.666804372985098</v>
-      </c>
-      <c r="F15" s="9">
-        <v>-4.2832658439550499</v>
-      </c>
-      <c r="G15">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
